--- a/values.xlsx
+++ b/values.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Juan</t>
   </si>
@@ -41,18 +41,29 @@
     <t>Lia</t>
   </si>
   <si>
-    <t>dgdgh</t>
-  </si>
-  <si>
-    <t>sss</t>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Marcos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,9 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:E6"/>
+  <dimension ref="D1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,45 +388,56 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/values.xlsx
+++ b/values.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TI\Desktop\project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TI\Desktop\project2 - copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,37 +24,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Ramona</t>
-  </si>
-  <si>
-    <t>Patricio</t>
-  </si>
-  <si>
-    <t>Jimena</t>
-  </si>
-  <si>
-    <t>Lia</t>
-  </si>
-  <si>
-    <t>Ramon</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Marcos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>SUDÁFRICA</t>
+  </si>
+  <si>
+    <t>MYAMMAR</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>RUSIA</t>
+  </si>
+  <si>
+    <t>PAÍSES BAJOS</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>BAHAMAS</t>
+  </si>
+  <si>
+    <t>NORUEGA</t>
+  </si>
+  <si>
+    <t>JORDANIA</t>
+  </si>
+  <si>
+    <t>NUEVA ZELANDA</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>QATAR</t>
+  </si>
+  <si>
+    <t>EMIRATOS ÁRABES UNIDOS</t>
+  </si>
+  <si>
+    <t>CHIPRE</t>
+  </si>
+  <si>
+    <t>LUXEMBURGO</t>
+  </si>
+  <si>
+    <t>BÉLGICA</t>
+  </si>
+  <si>
+    <t>ESTADOS UNIDOS DE AMÉRICA</t>
+  </si>
+  <si>
+    <t>MICRONESIA</t>
+  </si>
+  <si>
+    <t>SUIZA</t>
+  </si>
+  <si>
+    <t>POLONIA</t>
+  </si>
+  <si>
+    <t>REINO UNIDO</t>
+  </si>
+  <si>
+    <t>URUGUAY</t>
+  </si>
+  <si>
+    <t>JAPÓN</t>
+  </si>
+  <si>
+    <t>FRANCIA</t>
+  </si>
+  <si>
+    <t>PARAGUAY</t>
+  </si>
+  <si>
+    <t>LITUANIA</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +128,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,17 +154,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,37 +442,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:E11"/>
+  <dimension ref="D1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -417,27 +487,112 @@
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
-        <v>7</v>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
